--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Plxnb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H2">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I2">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J2">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6467329003081</v>
+        <v>0.9727856666666667</v>
       </c>
       <c r="N2">
-        <v>0.6467329003081</v>
+        <v>2.918357</v>
       </c>
       <c r="O2">
-        <v>0.07987710574302075</v>
+        <v>0.1129009604634424</v>
       </c>
       <c r="P2">
-        <v>0.07987710574302075</v>
+        <v>0.1474950440045494</v>
       </c>
       <c r="Q2">
-        <v>0.6154488593605434</v>
+        <v>1.099324329139111</v>
       </c>
       <c r="R2">
-        <v>0.6154488593605434</v>
+        <v>9.893918962251998</v>
       </c>
       <c r="S2">
-        <v>0.0007478652549609494</v>
+        <v>0.00104930023864654</v>
       </c>
       <c r="T2">
-        <v>0.0007478652549609494</v>
+        <v>0.001379188841338844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H3">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I3">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J3">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.40866481102097</v>
+        <v>1.477271666666667</v>
       </c>
       <c r="N3">
-        <v>1.40866481102097</v>
+        <v>4.431815</v>
       </c>
       <c r="O3">
-        <v>0.1739822854423989</v>
+        <v>0.1714513235002746</v>
       </c>
       <c r="P3">
-        <v>0.1739822854423989</v>
+        <v>0.223985875766749</v>
       </c>
       <c r="Q3">
-        <v>1.340524273237338</v>
+        <v>1.669433195371111</v>
       </c>
       <c r="R3">
-        <v>1.340524273237338</v>
+        <v>15.02489875834</v>
       </c>
       <c r="S3">
-        <v>0.001628943676047465</v>
+        <v>0.001593466644806416</v>
       </c>
       <c r="T3">
-        <v>0.001628943676047465</v>
+        <v>0.002094435257536385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H4">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I4">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J4">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>6.04120136161128</v>
+        <v>0.06161733333333334</v>
       </c>
       <c r="N4">
-        <v>6.04120136161128</v>
+        <v>0.184852</v>
       </c>
       <c r="O4">
-        <v>0.7461406088145803</v>
+        <v>0.007151273248471058</v>
       </c>
       <c r="P4">
-        <v>0.7461406088145803</v>
+        <v>0.009342501234197522</v>
       </c>
       <c r="Q4">
-        <v>5.748973780984026</v>
+        <v>0.06963243389688889</v>
       </c>
       <c r="R4">
-        <v>5.748973780984026</v>
+        <v>0.626691905072</v>
       </c>
       <c r="S4">
-        <v>0.00698588952938609</v>
+        <v>6.646385199421807E-05</v>
       </c>
       <c r="T4">
-        <v>0.00698588952938609</v>
+        <v>8.735936545774493E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>49.8163577302768</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H5">
-        <v>49.8163577302768</v>
+        <v>3.390236</v>
       </c>
       <c r="I5">
-        <v>0.4901240251634342</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J5">
-        <v>0.4901240251634342</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.6467329003081</v>
+        <v>0.04191233333333333</v>
       </c>
       <c r="N5">
-        <v>0.6467329003081</v>
+        <v>0.125737</v>
       </c>
       <c r="O5">
-        <v>0.07987710574302075</v>
+        <v>0.004864321968077193</v>
       </c>
       <c r="P5">
-        <v>0.07987710574302075</v>
+        <v>0.006354803181379123</v>
       </c>
       <c r="Q5">
-        <v>32.21787751768775</v>
+        <v>0.04736423377022222</v>
       </c>
       <c r="R5">
-        <v>32.21787751768775</v>
+        <v>0.4262781039319999</v>
       </c>
       <c r="S5">
-        <v>0.0391496885851746</v>
+        <v>4.52089528822896E-05</v>
       </c>
       <c r="T5">
-        <v>0.0391496885851746</v>
+        <v>5.942215683119724E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>49.8163577302768</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H6">
-        <v>49.8163577302768</v>
+        <v>3.390236</v>
       </c>
       <c r="I6">
-        <v>0.4901240251634342</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J6">
-        <v>0.4901240251634342</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.40866481102097</v>
+        <v>6.0626875</v>
       </c>
       <c r="N6">
-        <v>1.40866481102097</v>
+        <v>12.125375</v>
       </c>
       <c r="O6">
-        <v>0.1739822854423989</v>
+        <v>0.7036321208197348</v>
       </c>
       <c r="P6">
-        <v>0.1739822854423989</v>
+        <v>0.6128217758131249</v>
       </c>
       <c r="Q6">
-        <v>70.1745501478734</v>
+        <v>6.851313806416667</v>
       </c>
       <c r="R6">
-        <v>70.1745501478734</v>
+        <v>41.1078828385</v>
       </c>
       <c r="S6">
-        <v>0.08527289804816211</v>
+        <v>0.00653954890432123</v>
       </c>
       <c r="T6">
-        <v>0.08527289804816211</v>
+        <v>0.005730341386283102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H7">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I7">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J7">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.04120136161128</v>
+        <v>0.9727856666666667</v>
       </c>
       <c r="N7">
-        <v>6.04120136161128</v>
+        <v>2.918357</v>
       </c>
       <c r="O7">
-        <v>0.7461406088145803</v>
+        <v>0.1129009604634424</v>
       </c>
       <c r="P7">
-        <v>0.7461406088145803</v>
+        <v>0.1474950440045494</v>
       </c>
       <c r="Q7">
-        <v>300.9506481506628</v>
+        <v>0.9770247423401112</v>
       </c>
       <c r="R7">
-        <v>300.9506481506628</v>
+        <v>8.793222681061</v>
       </c>
       <c r="S7">
-        <v>0.3657014385300975</v>
+        <v>0.0009325658207745559</v>
       </c>
       <c r="T7">
-        <v>0.3657014385300975</v>
+        <v>0.001225754389882992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.9181296778954</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H8">
-        <v>48.9181296778954</v>
+        <v>3.013073</v>
       </c>
       <c r="I8">
-        <v>0.4812867040784302</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J8">
-        <v>0.4812867040784302</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6467329003081</v>
+        <v>1.477271666666667</v>
       </c>
       <c r="N8">
-        <v>0.6467329003081</v>
+        <v>4.431815</v>
       </c>
       <c r="O8">
-        <v>0.07987710574302075</v>
+        <v>0.1714513235002746</v>
       </c>
       <c r="P8">
-        <v>0.07987710574302075</v>
+        <v>0.223985875766749</v>
       </c>
       <c r="Q8">
-        <v>31.63696388423304</v>
+        <v>1.483709124166111</v>
       </c>
       <c r="R8">
-        <v>31.63696388423304</v>
+        <v>13.353382117495</v>
       </c>
       <c r="S8">
-        <v>0.0384437889543827</v>
+        <v>0.001416193835434112</v>
       </c>
       <c r="T8">
-        <v>0.0384437889543827</v>
+        <v>0.001861429801562761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.9181296778954</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H9">
-        <v>48.9181296778954</v>
+        <v>3.013073</v>
       </c>
       <c r="I9">
-        <v>0.4812867040784302</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J9">
-        <v>0.4812867040784302</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.40866481102097</v>
+        <v>0.06161733333333334</v>
       </c>
       <c r="N9">
-        <v>1.40866481102097</v>
+        <v>0.184852</v>
       </c>
       <c r="O9">
-        <v>0.1739822854423989</v>
+        <v>0.007151273248471058</v>
       </c>
       <c r="P9">
-        <v>0.1739822854423989</v>
+        <v>0.009342501234197522</v>
       </c>
       <c r="Q9">
-        <v>68.90924789821183</v>
+        <v>0.06188584113288889</v>
       </c>
       <c r="R9">
-        <v>68.90924789821183</v>
+        <v>0.556972570196</v>
       </c>
       <c r="S9">
-        <v>0.0837353607286048</v>
+        <v>5.90697632612522E-05</v>
       </c>
       <c r="T9">
-        <v>0.0837353607286048</v>
+        <v>7.764065550535829E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.9181296778954</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H10">
-        <v>48.9181296778954</v>
+        <v>3.013073</v>
       </c>
       <c r="I10">
-        <v>0.4812867040784302</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J10">
-        <v>0.4812867040784302</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>6.04120136161128</v>
+        <v>0.04191233333333333</v>
       </c>
       <c r="N10">
-        <v>6.04120136161128</v>
+        <v>0.125737</v>
       </c>
       <c r="O10">
-        <v>0.7461406088145803</v>
+        <v>0.004864321968077193</v>
       </c>
       <c r="P10">
-        <v>0.7461406088145803</v>
+        <v>0.006354803181379123</v>
       </c>
       <c r="Q10">
-        <v>295.5242716175788</v>
+        <v>0.04209497331122222</v>
       </c>
       <c r="R10">
-        <v>295.5242716175788</v>
+        <v>0.378854759801</v>
       </c>
       <c r="S10">
-        <v>0.3591075543954426</v>
+        <v>4.017946694209458E-05</v>
       </c>
       <c r="T10">
-        <v>0.3591075543954426</v>
+        <v>5.281145511694347E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.95419476364563</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H11">
-        <v>1.95419476364563</v>
+        <v>3.013073</v>
       </c>
       <c r="I11">
-        <v>0.01922657229774113</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J11">
-        <v>0.01922657229774113</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6467329003081</v>
+        <v>6.0626875</v>
       </c>
       <c r="N11">
-        <v>0.6467329003081</v>
+        <v>12.125375</v>
       </c>
       <c r="O11">
-        <v>0.07987710574302075</v>
+        <v>0.7036321208197348</v>
       </c>
       <c r="P11">
-        <v>0.07987710574302075</v>
+        <v>0.6128217758131249</v>
       </c>
       <c r="Q11">
-        <v>1.26384204725944</v>
+        <v>6.089106671229167</v>
       </c>
       <c r="R11">
-        <v>1.26384204725944</v>
+        <v>36.534640027375</v>
       </c>
       <c r="S11">
-        <v>0.001535762948502502</v>
+        <v>0.005812025545062314</v>
       </c>
       <c r="T11">
-        <v>0.001535762948502502</v>
+        <v>0.00509284218319674</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.95419476364563</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H12">
-        <v>1.95419476364563</v>
+        <v>204.526651</v>
       </c>
       <c r="I12">
-        <v>0.01922657229774113</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J12">
-        <v>0.01922657229774113</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.40866481102097</v>
+        <v>0.9727856666666667</v>
       </c>
       <c r="N12">
-        <v>1.40866481102097</v>
+        <v>2.918357</v>
       </c>
       <c r="O12">
-        <v>0.1739822854423989</v>
+        <v>0.1129009604634424</v>
       </c>
       <c r="P12">
-        <v>0.1739822854423989</v>
+        <v>0.1474950440045494</v>
       </c>
       <c r="Q12">
-        <v>2.752805397429041</v>
+        <v>66.32019818137856</v>
       </c>
       <c r="R12">
-        <v>2.752805397429041</v>
+        <v>596.881783632407</v>
       </c>
       <c r="S12">
-        <v>0.003345082989584516</v>
+        <v>0.06330233756702415</v>
       </c>
       <c r="T12">
-        <v>0.003345082989584516</v>
+        <v>0.08320390521946089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>68.17555033333333</v>
+      </c>
+      <c r="H13">
+        <v>204.526651</v>
+      </c>
+      <c r="I13">
+        <v>0.5606890969499024</v>
+      </c>
+      <c r="J13">
+        <v>0.5641132268613344</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.477271666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.431815</v>
+      </c>
+      <c r="O13">
+        <v>0.1714513235002746</v>
+      </c>
+      <c r="P13">
+        <v>0.223985875766749</v>
+      </c>
+      <c r="Q13">
+        <v>100.7138088668406</v>
+      </c>
+      <c r="R13">
+        <v>906.424279801565</v>
+      </c>
+      <c r="S13">
+        <v>0.09613088774423456</v>
+      </c>
+      <c r="T13">
+        <v>0.1263533951501427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>68.17555033333333</v>
+      </c>
+      <c r="H14">
+        <v>204.526651</v>
+      </c>
+      <c r="I14">
+        <v>0.5606890969499024</v>
+      </c>
+      <c r="J14">
+        <v>0.5641132268613344</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.06161733333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.184852</v>
+      </c>
+      <c r="O14">
+        <v>0.007151273248471058</v>
+      </c>
+      <c r="P14">
+        <v>0.009342501234197522</v>
+      </c>
+      <c r="Q14">
+        <v>4.200795610072444</v>
+      </c>
+      <c r="R14">
+        <v>37.807160490652</v>
+      </c>
+      <c r="S14">
+        <v>0.004009640939727233</v>
+      </c>
+      <c r="T14">
+        <v>0.005270228518179163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>68.17555033333333</v>
+      </c>
+      <c r="H15">
+        <v>204.526651</v>
+      </c>
+      <c r="I15">
+        <v>0.5606890969499024</v>
+      </c>
+      <c r="J15">
+        <v>0.5641132268613344</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.04191233333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.125737</v>
+      </c>
+      <c r="O15">
+        <v>0.004864321968077193</v>
+      </c>
+      <c r="P15">
+        <v>0.006354803181379123</v>
+      </c>
+      <c r="Q15">
+        <v>2.857396390754111</v>
+      </c>
+      <c r="R15">
+        <v>25.71656751678699</v>
+      </c>
+      <c r="S15">
+        <v>0.002727372291554773</v>
+      </c>
+      <c r="T15">
+        <v>0.00358482852871645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>68.17555033333333</v>
+      </c>
+      <c r="H16">
+        <v>204.526651</v>
+      </c>
+      <c r="I16">
+        <v>0.5606890969499024</v>
+      </c>
+      <c r="J16">
+        <v>0.5641132268613344</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.0626875</v>
+      </c>
+      <c r="N16">
+        <v>12.125375</v>
+      </c>
+      <c r="O16">
+        <v>0.7036321208197348</v>
+      </c>
+      <c r="P16">
+        <v>0.6128217758131249</v>
+      </c>
+      <c r="Q16">
+        <v>413.3270568115208</v>
+      </c>
+      <c r="R16">
+        <v>2479.962340869125</v>
+      </c>
+      <c r="S16">
+        <v>0.3945188584073617</v>
+      </c>
+      <c r="T16">
+        <v>0.3457008694448351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.95419476364563</v>
-      </c>
-      <c r="H13">
-        <v>1.95419476364563</v>
-      </c>
-      <c r="I13">
-        <v>0.01922657229774113</v>
-      </c>
-      <c r="J13">
-        <v>0.01922657229774113</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.04120136161128</v>
-      </c>
-      <c r="N13">
-        <v>6.04120136161128</v>
-      </c>
-      <c r="O13">
-        <v>0.7461406088145803</v>
-      </c>
-      <c r="P13">
-        <v>0.7461406088145803</v>
-      </c>
-      <c r="Q13">
-        <v>11.80568406698961</v>
-      </c>
-      <c r="R13">
-        <v>11.80568406698961</v>
-      </c>
-      <c r="S13">
-        <v>0.01434572635965411</v>
-      </c>
-      <c r="T13">
-        <v>0.01434572635965411</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>49.06827033333334</v>
+      </c>
+      <c r="H17">
+        <v>147.204811</v>
+      </c>
+      <c r="I17">
+        <v>0.4035470787925388</v>
+      </c>
+      <c r="J17">
+        <v>0.4060115419516788</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9727856666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.918357</v>
+      </c>
+      <c r="O17">
+        <v>0.1129009604634424</v>
+      </c>
+      <c r="P17">
+        <v>0.1474950440045494</v>
+      </c>
+      <c r="Q17">
+        <v>47.7329100683919</v>
+      </c>
+      <c r="R17">
+        <v>429.596190615527</v>
+      </c>
+      <c r="S17">
+        <v>0.04556085278789408</v>
+      </c>
+      <c r="T17">
+        <v>0.05988469024651783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>49.06827033333334</v>
+      </c>
+      <c r="H18">
+        <v>147.204811</v>
+      </c>
+      <c r="I18">
+        <v>0.4035470787925388</v>
+      </c>
+      <c r="J18">
+        <v>0.4060115419516788</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.477271666666667</v>
+      </c>
+      <c r="N18">
+        <v>4.431815</v>
+      </c>
+      <c r="O18">
+        <v>0.1714513235002746</v>
+      </c>
+      <c r="P18">
+        <v>0.223985875766749</v>
+      </c>
+      <c r="Q18">
+        <v>72.48716549577389</v>
+      </c>
+      <c r="R18">
+        <v>652.384489461965</v>
+      </c>
+      <c r="S18">
+        <v>0.06918868075365037</v>
+      </c>
+      <c r="T18">
+        <v>0.09094085079545493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>49.06827033333334</v>
+      </c>
+      <c r="H19">
+        <v>147.204811</v>
+      </c>
+      <c r="I19">
+        <v>0.4035470787925388</v>
+      </c>
+      <c r="J19">
+        <v>0.4060115419516788</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.06161733333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.184852</v>
+      </c>
+      <c r="O19">
+        <v>0.007151273248471058</v>
+      </c>
+      <c r="P19">
+        <v>0.009342501234197522</v>
+      </c>
+      <c r="Q19">
+        <v>3.023455969219111</v>
+      </c>
+      <c r="R19">
+        <v>27.211103722972</v>
+      </c>
+      <c r="S19">
+        <v>0.002885875429067724</v>
+      </c>
+      <c r="T19">
+        <v>0.003793163331781998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>49.06827033333334</v>
+      </c>
+      <c r="H20">
+        <v>147.204811</v>
+      </c>
+      <c r="I20">
+        <v>0.4035470787925388</v>
+      </c>
+      <c r="J20">
+        <v>0.4060115419516788</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04191233333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.125737</v>
+      </c>
+      <c r="O20">
+        <v>0.004864321968077193</v>
+      </c>
+      <c r="P20">
+        <v>0.006354803181379123</v>
+      </c>
+      <c r="Q20">
+        <v>2.056565702300778</v>
+      </c>
+      <c r="R20">
+        <v>18.509091320707</v>
+      </c>
+      <c r="S20">
+        <v>0.001962982920523924</v>
+      </c>
+      <c r="T20">
+        <v>0.002580123438471171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>49.06827033333334</v>
+      </c>
+      <c r="H21">
+        <v>147.204811</v>
+      </c>
+      <c r="I21">
+        <v>0.4035470787925388</v>
+      </c>
+      <c r="J21">
+        <v>0.4060115419516788</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.0626875</v>
+      </c>
+      <c r="N21">
+        <v>12.125375</v>
+      </c>
+      <c r="O21">
+        <v>0.7036321208197348</v>
+      </c>
+      <c r="P21">
+        <v>0.6128217758131249</v>
+      </c>
+      <c r="Q21">
+        <v>297.4855891965208</v>
+      </c>
+      <c r="R21">
+        <v>1784.913535179125</v>
+      </c>
+      <c r="S21">
+        <v>0.2839486869014027</v>
+      </c>
+      <c r="T21">
+        <v>0.2488127141394529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.214174</v>
+      </c>
+      <c r="H22">
+        <v>4.428348</v>
+      </c>
+      <c r="I22">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J22">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9727856666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.918357</v>
+      </c>
+      <c r="O22">
+        <v>0.1129009604634424</v>
+      </c>
+      <c r="P22">
+        <v>0.1474950440045494</v>
+      </c>
+      <c r="Q22">
+        <v>2.153916730706</v>
+      </c>
+      <c r="R22">
+        <v>12.923500384236</v>
+      </c>
+      <c r="S22">
+        <v>0.00205590404910304</v>
+      </c>
+      <c r="T22">
+        <v>0.001801505307348866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.214174</v>
+      </c>
+      <c r="H23">
+        <v>4.428348</v>
+      </c>
+      <c r="I23">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J23">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.477271666666667</v>
+      </c>
+      <c r="N23">
+        <v>4.431815</v>
+      </c>
+      <c r="O23">
+        <v>0.1714513235002746</v>
+      </c>
+      <c r="P23">
+        <v>0.223985875766749</v>
+      </c>
+      <c r="Q23">
+        <v>3.27093651527</v>
+      </c>
+      <c r="R23">
+        <v>19.62561909162</v>
+      </c>
+      <c r="S23">
+        <v>0.003122094522149137</v>
+      </c>
+      <c r="T23">
+        <v>0.00273576476205218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.214174</v>
+      </c>
+      <c r="H24">
+        <v>4.428348</v>
+      </c>
+      <c r="I24">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J24">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.06161733333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.184852</v>
+      </c>
+      <c r="O24">
+        <v>0.007151273248471058</v>
+      </c>
+      <c r="P24">
+        <v>0.009342501234197522</v>
+      </c>
+      <c r="Q24">
+        <v>0.136431497416</v>
+      </c>
+      <c r="R24">
+        <v>0.818588984496</v>
+      </c>
+      <c r="S24">
+        <v>0.0001302232644206295</v>
+      </c>
+      <c r="T24">
+        <v>0.000114109363273257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.214174</v>
+      </c>
+      <c r="H25">
+        <v>4.428348</v>
+      </c>
+      <c r="I25">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J25">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.04191233333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.125737</v>
+      </c>
+      <c r="O25">
+        <v>0.004864321968077193</v>
+      </c>
+      <c r="P25">
+        <v>0.006354803181379123</v>
+      </c>
+      <c r="Q25">
+        <v>0.09280119874599999</v>
+      </c>
+      <c r="R25">
+        <v>0.5568071924759999</v>
+      </c>
+      <c r="S25">
+        <v>8.857833617411061E-05</v>
+      </c>
+      <c r="T25">
+        <v>7.761760224335965E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.214174</v>
+      </c>
+      <c r="H26">
+        <v>4.428348</v>
+      </c>
+      <c r="I26">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J26">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.0626875</v>
+      </c>
+      <c r="N26">
+        <v>12.125375</v>
+      </c>
+      <c r="O26">
+        <v>0.7036321208197348</v>
+      </c>
+      <c r="P26">
+        <v>0.6128217758131249</v>
+      </c>
+      <c r="Q26">
+        <v>13.423845032625</v>
+      </c>
+      <c r="R26">
+        <v>53.6953801305</v>
+      </c>
+      <c r="S26">
+        <v>0.01281300106158676</v>
+      </c>
+      <c r="T26">
+        <v>0.007485008659357048</v>
       </c>
     </row>
   </sheetData>
